--- a/OT_3/OT_3/Автомат.xlsx
+++ b/OT_3/OT_3/Автомат.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/673f3cd2a1d7b60c/Документы/GitHub/labs_sem_2/OT_3/OT_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_AD4DF75460589B3ACB7284F4DF1861EC5BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AEEF063-3C50-4292-98FD-11FBBE006A15}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_AD4DF75460589B3ACB7284F4DF1861EC5BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4CC60D7-90C0-4162-AF7A-FB4D65C8BA70}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4932" yWindow="1872" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="18">
   <si>
     <t>S</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>wl</t>
+  </si>
+  <si>
+    <t>NOT_CO</t>
   </si>
 </sst>
 </file>
@@ -144,6 +147,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -410,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
@@ -603,7 +610,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -627,12 +634,12 @@
         <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -661,28 +668,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>5</v>
@@ -690,30 +697,59 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/OT_3/OT_3/Автомат.xlsx
+++ b/OT_3/OT_3/Автомат.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/673f3cd2a1d7b60c/Документы/GitHub/labs_sem_2/OT_3/OT_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_AD4DF75460589B3ACB7284F4DF1861EC5BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4CC60D7-90C0-4162-AF7A-FB4D65C8BA70}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_AD4DF75460589B3ACB7284F4DF1861EC5BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BA04804-F2B8-49EC-8A58-D34CD2BAC8FB}"/>
   <bookViews>
     <workbookView xWindow="4932" yWindow="1872" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,6 +151,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -420,7 +424,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,7 +435,7 @@
     <col min="4" max="4" width="5.6640625" customWidth="1"/>
     <col min="5" max="5" width="7.88671875" customWidth="1"/>
     <col min="6" max="6" width="5.21875" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
     <col min="8" max="8" width="5.6640625" customWidth="1"/>
     <col min="9" max="9" width="5.44140625" customWidth="1"/>
   </cols>
@@ -570,7 +574,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
@@ -599,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>6</v>

--- a/OT_3/OT_3/Автомат.xlsx
+++ b/OT_3/OT_3/Автомат.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/673f3cd2a1d7b60c/Документы/GitHub/labs_sem_2/OT_3/OT_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_AD4DF75460589B3ACB7284F4DF1861EC5BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BA04804-F2B8-49EC-8A58-D34CD2BAC8FB}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_AD4DF75460589B3ACB7284F4DF1861EC5BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D94A69DB-A13B-4793-97C3-67D8799ACDDB}"/>
   <bookViews>
-    <workbookView xWindow="4932" yWindow="1872" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7224" yWindow="2412" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -155,6 +155,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -424,7 +428,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>5</v>
